--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -14,108 +14,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="131">
   <si>
     <t>Size</t>
   </si>
   <si>
-    <t>6x3</t>
-  </si>
-  <si>
-    <t>8x4</t>
-  </si>
-  <si>
-    <t>7x4</t>
-  </si>
-  <si>
-    <t>8x3</t>
-  </si>
-  <si>
-    <t>6x4</t>
-  </si>
-  <si>
-    <t>5x3</t>
-  </si>
-  <si>
-    <t>7x3</t>
-  </si>
-  <si>
-    <t>7x2.5</t>
-  </si>
-  <si>
-    <t>6x2.5</t>
-  </si>
-  <si>
-    <t>5x2.5</t>
-  </si>
-  <si>
-    <t>Party name</t>
-  </si>
-  <si>
-    <t>Party-1</t>
-  </si>
-  <si>
-    <t>Party-2</t>
-  </si>
-  <si>
-    <t>Party-3</t>
-  </si>
-  <si>
-    <t>Party-4</t>
-  </si>
-  <si>
-    <t>Party-5</t>
-  </si>
-  <si>
-    <t>Party-6</t>
-  </si>
-  <si>
-    <t>Party-7</t>
-  </si>
-  <si>
-    <t>Party-8</t>
-  </si>
-  <si>
-    <t>Bill-1</t>
-  </si>
-  <si>
-    <t>Bill-2</t>
-  </si>
-  <si>
-    <t>Bill-3</t>
-  </si>
-  <si>
-    <t>Bill-4</t>
-  </si>
-  <si>
-    <t>Bill-5</t>
-  </si>
-  <si>
-    <t>Bill-6</t>
-  </si>
-  <si>
-    <t>Bill-7</t>
-  </si>
-  <si>
-    <t>Bill-8</t>
-  </si>
-  <si>
     <t>Bill</t>
   </si>
   <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>f-041</t>
+  </si>
+  <si>
+    <t>f-044</t>
+  </si>
+  <si>
+    <t>f-053</t>
+  </si>
+  <si>
+    <t>f-054</t>
+  </si>
+  <si>
+    <t>f-056</t>
+  </si>
+  <si>
+    <t>f-057</t>
+  </si>
+  <si>
+    <t>f-058</t>
+  </si>
+  <si>
+    <t>f-059</t>
+  </si>
+  <si>
+    <t>f-062</t>
+  </si>
+  <si>
+    <t>f-063</t>
+  </si>
+  <si>
+    <t>f-065</t>
+  </si>
+  <si>
+    <t>f-066</t>
+  </si>
+  <si>
+    <t>f-069</t>
+  </si>
+  <si>
+    <t>f-073</t>
+  </si>
+  <si>
+    <t>f-075</t>
+  </si>
+  <si>
+    <t>f-074</t>
+  </si>
+  <si>
+    <t>f-076</t>
+  </si>
+  <si>
+    <t>f-077</t>
+  </si>
+  <si>
+    <t>f-078</t>
+  </si>
+  <si>
+    <t>f-079</t>
+  </si>
+  <si>
+    <t>f-080</t>
+  </si>
+  <si>
+    <t>f-083</t>
+  </si>
+  <si>
+    <t>f-085</t>
+  </si>
+  <si>
+    <t>f-086</t>
+  </si>
+  <si>
+    <t>f-087</t>
+  </si>
+  <si>
+    <t>f-089</t>
+  </si>
+  <si>
+    <t>f-091</t>
+  </si>
+  <si>
+    <t>f-092</t>
+  </si>
+  <si>
+    <t>f-093</t>
+  </si>
+  <si>
+    <t>f-094</t>
+  </si>
+  <si>
+    <t>f-095</t>
+  </si>
+  <si>
+    <t>f-096</t>
+  </si>
+  <si>
+    <t>f-097</t>
+  </si>
+  <si>
+    <t>f-098</t>
+  </si>
+  <si>
+    <t>f-099</t>
+  </si>
+  <si>
+    <t>f-100</t>
+  </si>
+  <si>
+    <t>f-101</t>
+  </si>
+  <si>
+    <t>f-102</t>
+  </si>
+  <si>
+    <t>f-103</t>
+  </si>
+  <si>
+    <t>f-104</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>M/S.ASHIRVAD</t>
+  </si>
+  <si>
+    <t>M/S.SOMAYAJI</t>
+  </si>
+  <si>
+    <t>M/S.FAROOK BOARDS</t>
+  </si>
+  <si>
+    <t>M/S.UNIVERSAL PLY</t>
+  </si>
+  <si>
+    <t>M/S.EBRHIM VENEERS</t>
+  </si>
+  <si>
+    <t>M/S.SRI BHAGWATHKRIPA</t>
+  </si>
+  <si>
+    <t>M/S.ABT PLYWOOD</t>
+  </si>
+  <si>
+    <t>M/S.PASHUPATI</t>
+  </si>
+  <si>
+    <t>M/S.KRISHNA BOARDS</t>
+  </si>
+  <si>
+    <t>M/S.RAINTREE PANELS</t>
+  </si>
+  <si>
+    <t>M/S.LUCKYSTAR</t>
+  </si>
+  <si>
+    <t>M/S.DHRUV ENTERPRISES</t>
+  </si>
+  <si>
+    <t>M/S.FINE WOOD PRODUCT</t>
+  </si>
+  <si>
+    <t>M/S.COASTAL CHIP</t>
+  </si>
+  <si>
+    <t>M/S.M M PLY &amp; BOARDS</t>
+  </si>
+  <si>
+    <t>M/S.ULTRA PANELS</t>
+  </si>
+  <si>
+    <t>M/S.MAHESHWARI</t>
+  </si>
+  <si>
+    <t>M/S.ICORE LUMBERS</t>
+  </si>
+  <si>
+    <t>M/S.NAVRATAN TERADERS</t>
+  </si>
+  <si>
+    <t>M/S.KING SHAHAD</t>
+  </si>
+  <si>
+    <t>M/S.PRIME IMPEX</t>
+  </si>
+  <si>
+    <t>M/S.COASTAL VENEERS</t>
+  </si>
+  <si>
+    <t>M/S.M.M PLY</t>
+  </si>
+  <si>
+    <t>M/S.AYSHA WOOD</t>
+  </si>
+  <si>
+    <t>10.08.20</t>
+  </si>
+  <si>
+    <t>6X3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>5X3</t>
+  </si>
+  <si>
+    <t>14.08.20</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>26.08.20</t>
+  </si>
+  <si>
+    <t>31.08.20</t>
+  </si>
+  <si>
+    <t>6X4</t>
+  </si>
+  <si>
+    <t>09.09.20</t>
+  </si>
+  <si>
+    <t>8X4</t>
+  </si>
+  <si>
+    <t>10.09.20</t>
+  </si>
+  <si>
+    <t>7X3</t>
+  </si>
+  <si>
+    <t>6X2.5</t>
+  </si>
+  <si>
+    <t>11.09.20</t>
+  </si>
+  <si>
+    <t>8X3</t>
+  </si>
+  <si>
+    <t>0-058</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>14.09.20</t>
+  </si>
+  <si>
+    <t>15.09.20</t>
+  </si>
+  <si>
+    <t>24.09.20</t>
+  </si>
+  <si>
+    <t>7X4</t>
+  </si>
+  <si>
+    <t>25.09.20</t>
+  </si>
+  <si>
+    <t>5X2.5</t>
+  </si>
+  <si>
+    <t>01.10.20</t>
+  </si>
+  <si>
+    <t>03.10.20</t>
+  </si>
+  <si>
+    <t>07.10.20</t>
+  </si>
+  <si>
+    <t>06.10.20</t>
+  </si>
+  <si>
+    <t>08.10.20</t>
+  </si>
+  <si>
+    <t>09.10.20</t>
+  </si>
+  <si>
+    <t>10.10.20</t>
+  </si>
+  <si>
+    <t>12.10.20</t>
+  </si>
+  <si>
+    <t>16.10.20</t>
+  </si>
+  <si>
+    <t>22.10.20</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>27.10.20</t>
+  </si>
+  <si>
+    <t>30.10.20</t>
+  </si>
+  <si>
+    <t>31.10.20</t>
+  </si>
+  <si>
+    <t>03.11.20</t>
+  </si>
+  <si>
+    <t>11.11.20</t>
+  </si>
+  <si>
+    <t>7X2.5</t>
+  </si>
+  <si>
+    <t>12.11.20</t>
+  </si>
+  <si>
+    <t>17.11.20</t>
+  </si>
+  <si>
+    <t>19.11.20</t>
+  </si>
+  <si>
+    <t>20.11.20</t>
+  </si>
+  <si>
+    <t>21.11.20</t>
+  </si>
+  <si>
+    <t>25.11.20</t>
+  </si>
+  <si>
+    <t>01.12.20</t>
+  </si>
+  <si>
+    <t>03.12.20</t>
+  </si>
+  <si>
+    <t>F-105</t>
+  </si>
+  <si>
+    <t>07.12.20</t>
+  </si>
+  <si>
+    <t>F-107</t>
+  </si>
+  <si>
+    <t>F-108</t>
+  </si>
+  <si>
+    <t>08.12.20</t>
+  </si>
+  <si>
+    <t>F-109</t>
+  </si>
+  <si>
+    <t>15.12.20</t>
+  </si>
+  <si>
+    <t>F-111</t>
+  </si>
+  <si>
+    <t>F-112</t>
+  </si>
+  <si>
+    <t>F-113</t>
+  </si>
+  <si>
+    <t>16.12.20</t>
+  </si>
+  <si>
+    <t>F-115</t>
+  </si>
+  <si>
     <t>pcs</t>
-  </si>
-  <si>
-    <t>GRADE</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
   </si>
 </sst>
 </file>
@@ -440,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -555,6 +846,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -600,8 +971,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,2361 +1316,2776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E5">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E11">
         <v>6700</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E12">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E13">
         <v>750</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E15">
         <v>3000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E19">
         <v>400</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E21">
         <v>500</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E22">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E23">
         <v>8000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E24">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E25">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E29">
         <v>1400</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E31">
         <v>3000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E32">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E34">
         <v>3000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E35">
         <v>600</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E36">
         <v>13000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E37">
         <v>3000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E39">
         <v>500</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E40">
         <v>250</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E41">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E42">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E46">
         <v>2450</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E47">
         <v>5000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E48">
         <v>3000</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E49">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E50">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E51">
         <v>400</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E52">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E53">
         <v>400</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E54">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E55">
         <v>10250</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E56">
         <v>4000</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E57">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E58">
         <v>1050</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E59">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E60">
         <v>650</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
         <v>26</v>
       </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
       <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E61">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
       <c r="C62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E62">
         <v>3050</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
       <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E64">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E65">
         <v>300</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E66">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E67">
         <v>250</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E68">
         <v>1100</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E69">
         <v>400</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E70">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E71">
         <v>3000</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E72">
         <v>2500</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E76">
         <v>500</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E77">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E78">
         <v>600</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E79">
         <v>7000</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" t="s">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E80">
         <v>2500</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E81">
         <v>1000</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E82">
         <v>500</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E83">
         <v>2500</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E84">
         <v>1200</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E85">
         <v>500</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E86">
         <v>500</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="s">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E87">
         <v>500</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E88">
         <v>150</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E89">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E90">
         <v>1000</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E91">
         <v>500</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E92">
         <v>2000</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E93">
         <v>1000</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E94">
         <v>250</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E95">
         <v>200</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E96">
         <v>1500</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" t="s">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E97">
         <v>6100</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E98">
         <v>2600</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E99">
         <v>1000</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E100">
         <v>1500</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E101">
         <v>1000</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E102">
         <v>1000</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E103">
         <v>500</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E104">
         <v>500</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E105">
         <v>500</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E106">
         <v>1000</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E107">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E108">
         <v>500</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E109">
         <v>300</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E110">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E111">
         <v>150</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E112">
         <v>750</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E113">
         <v>300</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E114">
         <v>250</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E115">
         <v>2500</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E116">
         <v>1750</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E117">
         <v>18700</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
-      </c>
-      <c r="D118" t="s">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E118">
         <v>6850</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E119">
         <v>1500</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E120">
         <v>1650</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E121">
         <v>3000</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E122">
         <v>2500</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>27</v>
+      <c r="F122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
-      </c>
-      <c r="D123" t="s">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E123">
         <v>3000</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>27</v>
+      <c r="F123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E124">
         <v>600</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>27</v>
+      <c r="F124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E125">
         <v>1500</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>27</v>
+      <c r="F125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" t="s">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E126">
         <v>200</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>27</v>
+      <c r="F126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E127">
         <v>1500</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>27</v>
+      <c r="F127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
-      </c>
-      <c r="D128" t="s">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E128">
         <v>2000</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>27</v>
+      <c r="F128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E129">
         <v>300</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>27</v>
+      <c r="F129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E130">
         <v>200</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>27</v>
+      <c r="F130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E131">
         <v>1800</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>27</v>
+      <c r="F131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E132">
         <v>200</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>27</v>
+      <c r="F132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E133">
         <v>200</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>27</v>
+      <c r="F133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E134">
         <v>1000</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>27</v>
+      <c r="F134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E135">
         <v>1000</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>27</v>
+      <c r="F135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E136">
         <v>500</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>27</v>
+      <c r="F136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E137">
         <v>500</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>27</v>
+      <c r="F137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
-      </c>
-      <c r="D138" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E138">
         <v>650</v>
+      </c>
+      <c r="F138" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="130">
   <si>
     <t>Size</t>
   </si>
@@ -28,126 +28,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>f-041</t>
-  </si>
-  <si>
-    <t>f-044</t>
-  </si>
-  <si>
-    <t>f-053</t>
-  </si>
-  <si>
-    <t>f-054</t>
-  </si>
-  <si>
-    <t>f-056</t>
-  </si>
-  <si>
-    <t>f-057</t>
-  </si>
-  <si>
-    <t>f-058</t>
-  </si>
-  <si>
-    <t>f-059</t>
-  </si>
-  <si>
-    <t>f-062</t>
-  </si>
-  <si>
-    <t>f-063</t>
-  </si>
-  <si>
-    <t>f-065</t>
-  </si>
-  <si>
-    <t>f-066</t>
-  </si>
-  <si>
-    <t>f-069</t>
-  </si>
-  <si>
-    <t>f-073</t>
-  </si>
-  <si>
-    <t>f-075</t>
-  </si>
-  <si>
-    <t>f-074</t>
-  </si>
-  <si>
-    <t>f-076</t>
-  </si>
-  <si>
-    <t>f-077</t>
-  </si>
-  <si>
-    <t>f-078</t>
-  </si>
-  <si>
-    <t>f-079</t>
-  </si>
-  <si>
-    <t>f-080</t>
-  </si>
-  <si>
-    <t>f-083</t>
-  </si>
-  <si>
-    <t>f-085</t>
-  </si>
-  <si>
-    <t>f-086</t>
-  </si>
-  <si>
-    <t>f-087</t>
-  </si>
-  <si>
-    <t>f-089</t>
-  </si>
-  <si>
-    <t>f-091</t>
-  </si>
-  <si>
-    <t>f-092</t>
-  </si>
-  <si>
-    <t>f-093</t>
-  </si>
-  <si>
-    <t>f-094</t>
-  </si>
-  <si>
-    <t>f-095</t>
-  </si>
-  <si>
-    <t>f-096</t>
-  </si>
-  <si>
-    <t>f-097</t>
-  </si>
-  <si>
-    <t>f-098</t>
-  </si>
-  <si>
-    <t>f-099</t>
-  </si>
-  <si>
-    <t>f-100</t>
-  </si>
-  <si>
-    <t>f-101</t>
-  </si>
-  <si>
-    <t>f-102</t>
-  </si>
-  <si>
-    <t>f-103</t>
-  </si>
-  <si>
-    <t>f-104</t>
-  </si>
-  <si>
     <t>Party Name</t>
   </si>
   <si>
@@ -271,9 +151,6 @@
     <t>8X3</t>
   </si>
   <si>
-    <t>0-058</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -407,6 +284,126 @@
   </si>
   <si>
     <t>pcs</t>
+  </si>
+  <si>
+    <t>F-041</t>
+  </si>
+  <si>
+    <t>F-044</t>
+  </si>
+  <si>
+    <t>F-053</t>
+  </si>
+  <si>
+    <t>F-054</t>
+  </si>
+  <si>
+    <t>F-056</t>
+  </si>
+  <si>
+    <t>F-057</t>
+  </si>
+  <si>
+    <t>F-058</t>
+  </si>
+  <si>
+    <t>F-059</t>
+  </si>
+  <si>
+    <t>F-062</t>
+  </si>
+  <si>
+    <t>F-063</t>
+  </si>
+  <si>
+    <t>F-065</t>
+  </si>
+  <si>
+    <t>F-066</t>
+  </si>
+  <si>
+    <t>F-069</t>
+  </si>
+  <si>
+    <t>F-073</t>
+  </si>
+  <si>
+    <t>F-075</t>
+  </si>
+  <si>
+    <t>F-074</t>
+  </si>
+  <si>
+    <t>F-076</t>
+  </si>
+  <si>
+    <t>F-077</t>
+  </si>
+  <si>
+    <t>F-078</t>
+  </si>
+  <si>
+    <t>F-079</t>
+  </si>
+  <si>
+    <t>F-080</t>
+  </si>
+  <si>
+    <t>F-083</t>
+  </si>
+  <si>
+    <t>F-085</t>
+  </si>
+  <si>
+    <t>F-086</t>
+  </si>
+  <si>
+    <t>F-087</t>
+  </si>
+  <si>
+    <t>F-089</t>
+  </si>
+  <si>
+    <t>F-091</t>
+  </si>
+  <si>
+    <t>F-092</t>
+  </si>
+  <si>
+    <t>F-093</t>
+  </si>
+  <si>
+    <t>F-094</t>
+  </si>
+  <si>
+    <t>F-095</t>
+  </si>
+  <si>
+    <t>F-096</t>
+  </si>
+  <si>
+    <t>F-097</t>
+  </si>
+  <si>
+    <t>F-098</t>
+  </si>
+  <si>
+    <t>F-099</t>
+  </si>
+  <si>
+    <t>F-100</t>
+  </si>
+  <si>
+    <t>F-101</t>
+  </si>
+  <si>
+    <t>F-102</t>
+  </si>
+  <si>
+    <t>F-103</t>
+  </si>
+  <si>
+    <t>F-104</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1316,7 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1350,2742 +1347,2742 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>800</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>2000</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>2000</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>6700</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>400</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>750</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>2000</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>3000</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>8000</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>1500</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>1400</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E30">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>3000</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>3000</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>600</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>13000</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E37">
         <v>3000</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>1000</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>250</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>1000</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E42">
         <v>500</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E46">
         <v>2450</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E47">
         <v>5000</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E48">
         <v>3000</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E49">
         <v>2000</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E51">
         <v>400</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>300</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E53">
         <v>400</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E55">
         <v>10250</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>4000</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E57">
         <v>800</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E58">
         <v>1050</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E59">
         <v>700</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>650</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E62">
         <v>3050</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E63">
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E64">
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E65">
         <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E66">
         <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E67">
         <v>250</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E68">
         <v>1100</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E69">
         <v>400</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E70">
         <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E71">
         <v>3000</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E72">
         <v>2500</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>500</v>
       </c>
       <c r="F76" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E77">
         <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E78">
         <v>600</v>
       </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E79">
         <v>7000</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E80">
         <v>2500</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E81">
         <v>1000</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E82">
         <v>500</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E83">
         <v>2500</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>1200</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E85">
         <v>500</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E86">
         <v>500</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E87">
         <v>500</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E88">
         <v>150</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E89">
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E90">
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>500</v>
       </c>
       <c r="F91" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E92">
         <v>2000</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E93">
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E94">
         <v>250</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E95">
         <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E96">
         <v>1500</v>
       </c>
       <c r="F96" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E97">
         <v>6100</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E98">
         <v>2600</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E99">
         <v>1000</v>
       </c>
       <c r="F99" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E100">
         <v>1500</v>
       </c>
       <c r="F100" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E101">
         <v>1000</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E102">
         <v>1000</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E103">
         <v>500</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E104">
         <v>500</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E105">
         <v>500</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E106">
         <v>1000</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E107">
         <v>100</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E108">
         <v>500</v>
       </c>
       <c r="F108" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E109">
         <v>300</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E110">
         <v>300</v>
       </c>
       <c r="F110" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E111">
         <v>150</v>
       </c>
       <c r="F111" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E112">
         <v>750</v>
       </c>
       <c r="F112" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E113">
         <v>300</v>
       </c>
       <c r="F113" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E114">
         <v>250</v>
       </c>
       <c r="F114" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E115">
         <v>2500</v>
       </c>
       <c r="F115" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E116">
         <v>1750</v>
       </c>
       <c r="F116" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E117">
         <v>18700</v>
       </c>
       <c r="F117" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E118">
         <v>6850</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E119">
         <v>1500</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E120">
         <v>1650</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E121">
         <v>3000</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E122">
         <v>2500</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E123">
         <v>3000</v>
       </c>
       <c r="F123" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E124">
         <v>600</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C125" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E125">
         <v>1500</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E126">
         <v>200</v>
       </c>
       <c r="F126" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E127">
         <v>1500</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E128">
         <v>2000</v>
       </c>
       <c r="F128" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E129">
         <v>300</v>
       </c>
       <c r="F129" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E130">
         <v>200</v>
       </c>
       <c r="F130" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E131">
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E132">
         <v>200</v>
       </c>
       <c r="F132" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C133" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E133">
         <v>200</v>
       </c>
       <c r="F133" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E134">
         <v>1000</v>
       </c>
       <c r="F134" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E135">
         <v>1000</v>
       </c>
       <c r="F135" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C136" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E136">
         <v>500</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C137" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E137">
         <v>500</v>
       </c>
       <c r="F137" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E138">
         <v>650</v>
       </c>
       <c r="F138" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
   <si>
     <t>Size</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>F-104</t>
+  </si>
+  <si>
+    <t>PUR_INV_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -1313,19 +1319,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1351,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1364,8 +1374,11 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1385,7 +1398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1405,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1565,7 +1578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +1598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1605,7 +1618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4087,5 +4100,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -16,18 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
     <t>GRADE</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Party Name</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>F-115</t>
   </si>
   <si>
-    <t>pcs</t>
-  </si>
-  <si>
     <t>F-041</t>
   </si>
   <si>
@@ -410,6 +398,18 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>BILL NO</t>
+  </si>
+  <si>
+    <t>BILL DATE</t>
+  </si>
+  <si>
+    <t>SIZE</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1334,2768 +1334,2768 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E3">
         <v>800</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>2000</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>2000</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>6700</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>400</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>750</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>2000</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>3000</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>8000</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>1500</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>1400</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>3000</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>3000</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>600</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>13000</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E37">
         <v>3000</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>1000</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>250</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>1000</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <v>500</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>2450</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>5000</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E48">
         <v>3000</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E49">
         <v>2000</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>400</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>300</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E53">
         <v>400</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E54">
         <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <v>10250</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>4000</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E57">
         <v>800</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <v>1050</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E59">
         <v>700</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>650</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E62">
         <v>3050</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E63">
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E64">
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E65">
         <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E67">
         <v>250</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E68">
         <v>1100</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>400</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E70">
         <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E71">
         <v>3000</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>2500</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E76">
         <v>500</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E78">
         <v>600</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E79">
         <v>7000</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E80">
         <v>2500</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>1000</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E82">
         <v>500</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E83">
         <v>2500</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E84">
         <v>1200</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E85">
         <v>500</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E86">
         <v>500</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E87">
         <v>500</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E88">
         <v>150</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E89">
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E90">
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E91">
         <v>500</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E92">
         <v>2000</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E93">
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E94">
         <v>250</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E95">
         <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E96">
         <v>1500</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E97">
         <v>6100</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E98">
         <v>2600</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>1000</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E100">
         <v>1500</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E101">
         <v>1000</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E102">
         <v>1000</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E103">
         <v>500</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E104">
         <v>500</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E105">
         <v>500</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E106">
         <v>1000</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E107">
         <v>100</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E108">
         <v>500</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E109">
         <v>300</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E110">
         <v>300</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E111">
         <v>150</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E112">
         <v>750</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E113">
         <v>300</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E114">
         <v>250</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E115">
         <v>2500</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E116">
         <v>1750</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E117">
         <v>18700</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E118">
         <v>6850</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E119">
         <v>1500</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E120">
         <v>1650</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E121">
         <v>3000</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E122">
         <v>2500</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E123">
         <v>3000</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E124">
         <v>600</v>
       </c>
       <c r="F124" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E125">
         <v>1500</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E126">
         <v>200</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E127">
         <v>1500</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E128">
         <v>2000</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E129">
         <v>300</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E130">
         <v>200</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E131">
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E132">
         <v>200</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E133">
         <v>200</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134" t="s">
         <v>83</v>
       </c>
-      <c r="B134" t="s">
-        <v>86</v>
-      </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E134">
         <v>1000</v>
       </c>
       <c r="F134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" t="s">
         <v>83</v>
       </c>
-      <c r="B135" t="s">
-        <v>86</v>
-      </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E135">
         <v>1000</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" t="s">
         <v>83</v>
       </c>
-      <c r="B136" t="s">
-        <v>86</v>
-      </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E136">
         <v>500</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" t="s">
         <v>83</v>
       </c>
-      <c r="B137" t="s">
-        <v>86</v>
-      </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E137">
         <v>500</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E138">
         <v>650</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="161">
   <si>
     <t>GRADE</t>
   </si>
@@ -410,6 +410,93 @@
   </si>
   <si>
     <t>SIZE</t>
+  </si>
+  <si>
+    <t>19.01.21</t>
+  </si>
+  <si>
+    <t>F-122</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>22.01.21</t>
+  </si>
+  <si>
+    <t>F-123</t>
+  </si>
+  <si>
+    <t>MR.ASHFAK</t>
+  </si>
+  <si>
+    <t>23.01.21</t>
+  </si>
+  <si>
+    <t>F-124</t>
+  </si>
+  <si>
+    <t>27.01.21</t>
+  </si>
+  <si>
+    <t>F-125</t>
+  </si>
+  <si>
+    <t>30.01.21</t>
+  </si>
+  <si>
+    <t>F-127</t>
+  </si>
+  <si>
+    <t>M/S.PEVEES PLYWOOD</t>
+  </si>
+  <si>
+    <t>F-128</t>
+  </si>
+  <si>
+    <t>M/S.PANAL INDIA</t>
+  </si>
+  <si>
+    <t>F-129</t>
+  </si>
+  <si>
+    <t>M/S.PREMIER</t>
+  </si>
+  <si>
+    <t>F-130</t>
+  </si>
+  <si>
+    <t>F-131</t>
+  </si>
+  <si>
+    <t>F-132</t>
+  </si>
+  <si>
+    <t>31.01.21</t>
+  </si>
+  <si>
+    <t>F-133</t>
+  </si>
+  <si>
+    <t>01.02.21</t>
+  </si>
+  <si>
+    <t>F-134</t>
+  </si>
+  <si>
+    <t>F-135</t>
+  </si>
+  <si>
+    <t>F-136</t>
+  </si>
+  <si>
+    <t>M/S.SRI BHYRAVESHWARA</t>
+  </si>
+  <si>
+    <t>F-137</t>
+  </si>
+  <si>
+    <t>i9</t>
   </si>
 </sst>
 </file>
@@ -1319,16 +1406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3898,7 +3985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
@@ -3918,7 +4005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>80</v>
       </c>
@@ -3938,7 +4025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>80</v>
       </c>
@@ -3958,7 +4045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>80</v>
       </c>
@@ -3978,7 +4065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>80</v>
       </c>
@@ -3998,7 +4085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>80</v>
       </c>
@@ -4018,7 +4105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>80</v>
       </c>
@@ -4038,7 +4125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>80</v>
       </c>
@@ -4058,7 +4145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>80</v>
       </c>
@@ -4078,7 +4165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>84</v>
       </c>
@@ -4096,6 +4183,1346 @@
       </c>
       <c r="F138" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139">
+        <v>1000</v>
+      </c>
+      <c r="F139" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140">
+        <v>1000</v>
+      </c>
+      <c r="F140" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141">
+        <v>100</v>
+      </c>
+      <c r="F141" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142">
+        <v>500</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" t="s">
+        <v>137</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143">
+        <v>350</v>
+      </c>
+      <c r="F143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144">
+        <v>150</v>
+      </c>
+      <c r="F144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>141</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146">
+        <v>1000</v>
+      </c>
+      <c r="F146" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147">
+        <v>500</v>
+      </c>
+      <c r="F147" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148">
+        <v>150</v>
+      </c>
+      <c r="F148" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149">
+        <v>150</v>
+      </c>
+      <c r="F149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150">
+        <v>50</v>
+      </c>
+      <c r="F150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151">
+        <v>7000</v>
+      </c>
+      <c r="F151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" t="s">
+        <v>144</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152">
+        <v>500</v>
+      </c>
+      <c r="F152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" t="s">
+        <v>146</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <v>7000</v>
+      </c>
+      <c r="F153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B154" t="s">
+        <v>145</v>
+      </c>
+      <c r="C154" t="s">
+        <v>146</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E154">
+        <v>500</v>
+      </c>
+      <c r="F154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C155" t="s">
+        <v>148</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155">
+        <v>23750</v>
+      </c>
+      <c r="F155" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" t="s">
+        <v>147</v>
+      </c>
+      <c r="C156" t="s">
+        <v>148</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156">
+        <v>1500</v>
+      </c>
+      <c r="F156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B157" t="s">
+        <v>147</v>
+      </c>
+      <c r="C157" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E157">
+        <v>5000</v>
+      </c>
+      <c r="F157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" t="s">
+        <v>147</v>
+      </c>
+      <c r="C158" t="s">
+        <v>148</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158">
+        <v>1750</v>
+      </c>
+      <c r="F158" t="s">
+        <v>42</v>
+      </c>
+      <c r="G158" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" t="s">
+        <v>147</v>
+      </c>
+      <c r="C159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E159">
+        <v>600</v>
+      </c>
+      <c r="F159" t="s">
+        <v>42</v>
+      </c>
+      <c r="G159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" t="s">
+        <v>147</v>
+      </c>
+      <c r="C160" t="s">
+        <v>148</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160">
+        <v>5000</v>
+      </c>
+      <c r="F160" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" t="s">
+        <v>147</v>
+      </c>
+      <c r="C161" t="s">
+        <v>148</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161">
+        <v>150</v>
+      </c>
+      <c r="F161" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" t="s">
+        <v>148</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162">
+        <v>1850</v>
+      </c>
+      <c r="F162" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" t="s">
+        <v>147</v>
+      </c>
+      <c r="C163" t="s">
+        <v>148</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163">
+        <v>600</v>
+      </c>
+      <c r="F163" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164" t="s">
+        <v>148</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164">
+        <v>27500</v>
+      </c>
+      <c r="F164" t="s">
+        <v>42</v>
+      </c>
+      <c r="G164" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" t="s">
+        <v>148</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165">
+        <v>1000</v>
+      </c>
+      <c r="F165" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166">
+        <v>400</v>
+      </c>
+      <c r="F166" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" t="s">
+        <v>149</v>
+      </c>
+      <c r="C167" t="s">
+        <v>148</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167">
+        <v>4050</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" t="s">
+        <v>148</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168">
+        <v>2000</v>
+      </c>
+      <c r="F168" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" t="s">
+        <v>148</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169">
+        <v>750</v>
+      </c>
+      <c r="F169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" t="s">
+        <v>148</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E170">
+        <v>1250</v>
+      </c>
+      <c r="F170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B171" t="s">
+        <v>151</v>
+      </c>
+      <c r="C171" t="s">
+        <v>148</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171">
+        <v>29400</v>
+      </c>
+      <c r="F171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B172" t="s">
+        <v>151</v>
+      </c>
+      <c r="C172" t="s">
+        <v>148</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172">
+        <v>500</v>
+      </c>
+      <c r="F172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" t="s">
+        <v>148</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173">
+        <v>2050</v>
+      </c>
+      <c r="F173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" t="s">
+        <v>148</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174">
+        <v>34000</v>
+      </c>
+      <c r="F174" t="s">
+        <v>42</v>
+      </c>
+      <c r="G174" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" t="s">
+        <v>148</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175">
+        <v>900</v>
+      </c>
+      <c r="F175" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" t="s">
+        <v>148</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E176">
+        <v>1100</v>
+      </c>
+      <c r="F176" t="s">
+        <v>42</v>
+      </c>
+      <c r="G176" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" t="s">
+        <v>148</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E177">
+        <v>400</v>
+      </c>
+      <c r="F177" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178">
+        <v>4600</v>
+      </c>
+      <c r="F178" t="s">
+        <v>42</v>
+      </c>
+      <c r="G178" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" t="s">
+        <v>148</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179">
+        <v>2500</v>
+      </c>
+      <c r="F179" t="s">
+        <v>42</v>
+      </c>
+      <c r="G179" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" t="s">
+        <v>148</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180">
+        <v>800</v>
+      </c>
+      <c r="F180" t="s">
+        <v>42</v>
+      </c>
+      <c r="G180" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" t="s">
+        <v>148</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181">
+        <v>5000</v>
+      </c>
+      <c r="F181" t="s">
+        <v>42</v>
+      </c>
+      <c r="G181" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" t="s">
+        <v>148</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182">
+        <v>3000</v>
+      </c>
+      <c r="F182" t="s">
+        <v>42</v>
+      </c>
+      <c r="G182" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" t="s">
+        <v>148</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E183">
+        <v>500</v>
+      </c>
+      <c r="F183" t="s">
+        <v>42</v>
+      </c>
+      <c r="G183" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B184" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184">
+        <v>1000</v>
+      </c>
+      <c r="F184" t="s">
+        <v>42</v>
+      </c>
+      <c r="G184" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185">
+        <v>1000</v>
+      </c>
+      <c r="F185" t="s">
+        <v>42</v>
+      </c>
+      <c r="G185" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" t="s">
+        <v>155</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186">
+        <v>100</v>
+      </c>
+      <c r="F186" t="s">
+        <v>42</v>
+      </c>
+      <c r="G186" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187">
+        <v>100</v>
+      </c>
+      <c r="F187" t="s">
+        <v>42</v>
+      </c>
+      <c r="G187" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" t="s">
+        <v>148</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188">
+        <v>16500</v>
+      </c>
+      <c r="F188" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" t="s">
+        <v>148</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189">
+        <v>1350</v>
+      </c>
+      <c r="F189" t="s">
+        <v>42</v>
+      </c>
+      <c r="G189" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" t="s">
+        <v>156</v>
+      </c>
+      <c r="C190" t="s">
+        <v>148</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190">
+        <v>2000</v>
+      </c>
+      <c r="F190" t="s">
+        <v>42</v>
+      </c>
+      <c r="G190" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191" t="s">
+        <v>148</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191">
+        <v>400</v>
+      </c>
+      <c r="F191" t="s">
+        <v>42</v>
+      </c>
+      <c r="G191" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" t="s">
+        <v>157</v>
+      </c>
+      <c r="C192" t="s">
+        <v>158</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192">
+        <v>11000</v>
+      </c>
+      <c r="F192" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>158</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E193">
+        <v>5000</v>
+      </c>
+      <c r="F193" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B194" t="s">
+        <v>157</v>
+      </c>
+      <c r="C194" t="s">
+        <v>158</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E194">
+        <v>1150</v>
+      </c>
+      <c r="F194" t="s">
+        <v>42</v>
+      </c>
+      <c r="G194" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B195" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" t="s">
+        <v>158</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195">
+        <v>250</v>
+      </c>
+      <c r="F195" t="s">
+        <v>42</v>
+      </c>
+      <c r="G195" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B196" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" t="s">
+        <v>158</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E196">
+        <v>11000</v>
+      </c>
+      <c r="F196" t="s">
+        <v>42</v>
+      </c>
+      <c r="G196" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B197" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" t="s">
+        <v>158</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E197">
+        <v>4850</v>
+      </c>
+      <c r="F197" t="s">
+        <v>42</v>
+      </c>
+      <c r="G197" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C198" t="s">
+        <v>158</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198">
+        <v>1150</v>
+      </c>
+      <c r="F198" t="s">
+        <v>42</v>
+      </c>
+      <c r="G198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" t="s">
+        <v>159</v>
+      </c>
+      <c r="C199" t="s">
+        <v>158</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199">
+        <v>250</v>
+      </c>
+      <c r="F199" t="s">
+        <v>42</v>
+      </c>
+      <c r="G199" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="170">
   <si>
     <t>GRADE</t>
   </si>
@@ -496,7 +496,34 @@
     <t>F-137</t>
   </si>
   <si>
-    <t>i9</t>
+    <t>F-138</t>
+  </si>
+  <si>
+    <t>M/S.S K M BOARDS&amp;PLYWOODS</t>
+  </si>
+  <si>
+    <t>10.02.21</t>
+  </si>
+  <si>
+    <t>M/S.PREMIER EXIM</t>
+  </si>
+  <si>
+    <t>F-140</t>
+  </si>
+  <si>
+    <t>16.02.21</t>
+  </si>
+  <si>
+    <t>F-142</t>
+  </si>
+  <si>
+    <t>18.02.21</t>
+  </si>
+  <si>
+    <t>F-143</t>
+  </si>
+  <si>
+    <t>M/S.ASHIRVAD PLY</t>
   </si>
 </sst>
 </file>
@@ -1406,16 +1433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2342,7 +2369,7 @@
         <v>2450</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5522,7 +5549,202 @@
         <v>42</v>
       </c>
       <c r="G199" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B200" t="s">
         <v>160</v>
+      </c>
+      <c r="C200" t="s">
+        <v>161</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200">
+        <v>1250</v>
+      </c>
+      <c r="F200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" t="s">
+        <v>164</v>
+      </c>
+      <c r="C201" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201">
+        <v>7450</v>
+      </c>
+      <c r="F201" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" t="s">
+        <v>164</v>
+      </c>
+      <c r="C202" t="s">
+        <v>163</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E202">
+        <v>1000</v>
+      </c>
+      <c r="F202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B203" t="s">
+        <v>166</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203">
+        <v>1000</v>
+      </c>
+      <c r="F203" t="s">
+        <v>42</v>
+      </c>
+      <c r="G203" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B204" t="s">
+        <v>166</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E204">
+        <v>500</v>
+      </c>
+      <c r="F204" t="s">
+        <v>42</v>
+      </c>
+      <c r="G204" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B205" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205">
+        <v>300</v>
+      </c>
+      <c r="F205" t="s">
+        <v>42</v>
+      </c>
+      <c r="G205" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B206" t="s">
+        <v>166</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206">
+        <v>300</v>
+      </c>
+      <c r="F206" t="s">
+        <v>42</v>
+      </c>
+      <c r="G206" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B207" t="s">
+        <v>166</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207">
+        <v>450</v>
+      </c>
+      <c r="F207" t="s">
+        <v>42</v>
+      </c>
+      <c r="G207" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B208" t="s">
+        <v>168</v>
+      </c>
+      <c r="C208" t="s">
+        <v>169</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208">
+        <v>50</v>
+      </c>
+      <c r="F208" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice/sale_inv.xlsx
+++ b/Invoice/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="170">
   <si>
     <t>GRADE</t>
   </si>
@@ -1433,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J124" sqref="J123:J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3692,7 +3692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>71</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>71</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>71</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:7">
       <c r="A123" s="7" t="s">
         <v>72</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:7">
       <c r="A124" s="7" t="s">
         <v>73</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>75</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>75</v>
       </c>
@@ -3972,41 +3972,44 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E127">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="F127" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E128">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="F128" t="s">
         <v>42</v>
@@ -4014,19 +4017,19 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E129">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F129" t="s">
         <v>42</v>
@@ -4043,10 +4046,10 @@
         <v>24</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E130">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F130" t="s">
         <v>42</v>
@@ -4057,16 +4060,16 @@
         <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E131">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="F131" t="s">
         <v>42</v>
@@ -4077,13 +4080,13 @@
         <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E132">
         <v>200</v>
@@ -4103,10 +4106,10 @@
         <v>17</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E133">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="F133" t="s">
         <v>42</v>
@@ -4117,19 +4120,19 @@
         <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E134">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F134" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4137,16 +4140,16 @@
         <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F135" t="s">
         <v>42</v>
@@ -4163,13 +4166,13 @@
         <v>25</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E136">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4183,10 +4186,10 @@
         <v>25</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E137">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F137" t="s">
         <v>42</v>
@@ -4194,68 +4197,62 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138">
+        <v>500</v>
+      </c>
+      <c r="F138" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139">
+        <v>500</v>
+      </c>
+      <c r="F139" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>85</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>22</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E138">
+      <c r="E140">
         <v>650</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F140" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139" t="s">
-        <v>133</v>
-      </c>
-      <c r="C139" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139">
-        <v>1000</v>
-      </c>
-      <c r="F139" t="s">
-        <v>42</v>
-      </c>
-      <c r="G139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B140" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140">
-        <v>1000</v>
-      </c>
-      <c r="F140" t="s">
-        <v>42</v>
-      </c>
-      <c r="G140" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4269,10 +4266,10 @@
         <v>4</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E141">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F141" t="s">
         <v>42</v>
@@ -4292,10 +4289,10 @@
         <v>4</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E142">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F142" t="s">
         <v>42</v>
@@ -4306,59 +4303,65 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E143">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G143" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B144" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E144">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G144" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E145">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="F145" t="s">
         <v>28</v>
@@ -4366,48 +4369,42 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E146">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
-      </c>
-      <c r="G146" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E147">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
-      </c>
-      <c r="G147" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4421,10 +4418,10 @@
         <v>17</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E148">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="F148" t="s">
         <v>42</v>
@@ -4444,13 +4441,16 @@
         <v>17</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E149">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="F149" t="s">
         <v>42</v>
+      </c>
+      <c r="G149" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4464,50 +4464,53 @@
         <v>17</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E150">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G150" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E151">
-        <v>7000</v>
+        <v>150</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C152" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E152">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
         <v>28</v>
@@ -4518,10 +4521,10 @@
         <v>142</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C153" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>36</v>
@@ -4538,10 +4541,10 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C154" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>46</v>
@@ -4558,22 +4561,19 @@
         <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E155">
-        <v>23750</v>
+        <v>7000</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
-      </c>
-      <c r="G155" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4581,19 +4581,19 @@
         <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E156">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4607,10 +4607,10 @@
         <v>148</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E157">
-        <v>5000</v>
+        <v>23750</v>
       </c>
       <c r="F157" t="s">
         <v>42</v>
@@ -4630,16 +4630,13 @@
         <v>148</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E158">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="F158" t="s">
         <v>42</v>
-      </c>
-      <c r="G158" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4653,10 +4650,10 @@
         <v>148</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E159">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="F159" t="s">
         <v>42</v>
@@ -4676,13 +4673,16 @@
         <v>148</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E160">
-        <v>5000</v>
+        <v>1750</v>
       </c>
       <c r="F160" t="s">
         <v>42</v>
+      </c>
+      <c r="G160" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4696,13 +4696,16 @@
         <v>148</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E161">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F161" t="s">
         <v>42</v>
+      </c>
+      <c r="G161" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4716,16 +4719,13 @@
         <v>148</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E162">
-        <v>1850</v>
+        <v>5000</v>
       </c>
       <c r="F162" t="s">
         <v>42</v>
-      </c>
-      <c r="G162" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4739,16 +4739,13 @@
         <v>148</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E163">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F163" t="s">
         <v>42</v>
-      </c>
-      <c r="G163" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4756,16 +4753,16 @@
         <v>142</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C164" t="s">
         <v>148</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E164">
-        <v>27500</v>
+        <v>1850</v>
       </c>
       <c r="F164" t="s">
         <v>42</v>
@@ -4779,19 +4776,22 @@
         <v>142</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
         <v>148</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E165">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F165" t="s">
         <v>42</v>
+      </c>
+      <c r="G165" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4805,13 +4805,16 @@
         <v>148</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E166">
-        <v>400</v>
+        <v>27500</v>
       </c>
       <c r="F166" t="s">
         <v>42</v>
+      </c>
+      <c r="G166" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4825,16 +4828,13 @@
         <v>148</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E167">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="F167" t="s">
         <v>42</v>
-      </c>
-      <c r="G167" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4848,16 +4848,13 @@
         <v>148</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E168">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="F168" t="s">
         <v>42</v>
-      </c>
-      <c r="G168" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4865,19 +4862,22 @@
         <v>142</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C169" t="s">
         <v>148</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E169">
-        <v>750</v>
+        <v>4050</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G169" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4885,19 +4885,22 @@
         <v>142</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C170" t="s">
         <v>148</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>1250</v>
+        <v>2000</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G170" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4905,16 +4908,16 @@
         <v>142</v>
       </c>
       <c r="B171" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s">
         <v>148</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E171">
-        <v>29400</v>
+        <v>750</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -4925,16 +4928,16 @@
         <v>142</v>
       </c>
       <c r="B172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
         <v>148</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E172">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -4951,10 +4954,10 @@
         <v>148</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E173">
-        <v>2050</v>
+        <v>29400</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -4962,45 +4965,42 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B174" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C174" t="s">
         <v>148</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E174">
-        <v>34000</v>
+        <v>500</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
-      </c>
-      <c r="G174" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B175" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C175" t="s">
         <v>148</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E175">
-        <v>900</v>
+        <v>2050</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5014,10 +5014,10 @@
         <v>148</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E176">
-        <v>1100</v>
+        <v>34000</v>
       </c>
       <c r="F176" t="s">
         <v>42</v>
@@ -5037,10 +5037,10 @@
         <v>148</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E177">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F177" t="s">
         <v>42</v>
@@ -5057,10 +5057,10 @@
         <v>148</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E178">
-        <v>4600</v>
+        <v>1100</v>
       </c>
       <c r="F178" t="s">
         <v>42</v>
@@ -5080,16 +5080,13 @@
         <v>148</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E179">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="F179" t="s">
         <v>42</v>
-      </c>
-      <c r="G179" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5103,10 +5100,10 @@
         <v>148</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E180">
-        <v>800</v>
+        <v>4600</v>
       </c>
       <c r="F180" t="s">
         <v>42</v>
@@ -5125,11 +5122,11 @@
       <c r="C181" t="s">
         <v>148</v>
       </c>
-      <c r="D181" s="6" t="s">
-        <v>34</v>
+      <c r="D181" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F181" t="s">
         <v>42</v>
@@ -5148,11 +5145,11 @@
       <c r="C182" t="s">
         <v>148</v>
       </c>
-      <c r="D182" s="6" t="s">
-        <v>27</v>
+      <c r="D182" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E182">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F182" t="s">
         <v>42</v>
@@ -5171,11 +5168,11 @@
       <c r="C183" t="s">
         <v>148</v>
       </c>
-      <c r="D183" s="8" t="s">
-        <v>39</v>
+      <c r="D183" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E183">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F183" t="s">
         <v>42</v>
@@ -5186,19 +5183,19 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B184" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C184" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>36</v>
+        <v>148</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F184" t="s">
         <v>42</v>
@@ -5209,19 +5206,19 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B185" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E185">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F185" t="s">
         <v>42</v>
@@ -5241,10 +5238,10 @@
         <v>4</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E186">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F186" t="s">
         <v>42</v>
@@ -5264,10 +5261,10 @@
         <v>4</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E187">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F187" t="s">
         <v>42</v>
@@ -5281,16 +5278,16 @@
         <v>154</v>
       </c>
       <c r="B188" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C188" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E188">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="F188" t="s">
         <v>42</v>
@@ -5304,16 +5301,16 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C189" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E189">
-        <v>1350</v>
+        <v>100</v>
       </c>
       <c r="F189" t="s">
         <v>42</v>
@@ -5332,11 +5329,11 @@
       <c r="C190" t="s">
         <v>148</v>
       </c>
-      <c r="D190" s="6" t="s">
-        <v>34</v>
+      <c r="D190" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E190">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="F190" t="s">
         <v>42</v>
@@ -5355,11 +5352,11 @@
       <c r="C191" t="s">
         <v>148</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>27</v>
+      <c r="D191" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E191">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="F191" t="s">
         <v>42</v>
@@ -5373,16 +5370,16 @@
         <v>154</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C192" t="s">
-        <v>158</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>36</v>
+        <v>148</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E192">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="F192" t="s">
         <v>42</v>
@@ -5396,16 +5393,16 @@
         <v>154</v>
       </c>
       <c r="B193" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C193" t="s">
-        <v>158</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>46</v>
+        <v>148</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E193">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="F193" t="s">
         <v>42</v>
@@ -5425,10 +5422,10 @@
         <v>158</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E194">
-        <v>1150</v>
+        <v>11000</v>
       </c>
       <c r="F194" t="s">
         <v>42</v>
@@ -5448,10 +5445,10 @@
         <v>158</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E195">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="F195" t="s">
         <v>42</v>
@@ -5465,16 +5462,16 @@
         <v>154</v>
       </c>
       <c r="B196" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C196" t="s">
         <v>158</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E196">
-        <v>11000</v>
+        <v>1150</v>
       </c>
       <c r="F196" t="s">
         <v>42</v>
@@ -5488,16 +5485,16 @@
         <v>154</v>
       </c>
       <c r="B197" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C197" t="s">
         <v>158</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E197">
-        <v>4850</v>
+        <v>250</v>
       </c>
       <c r="F197" t="s">
         <v>42</v>
@@ -5517,10 +5514,10 @@
         <v>158</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E198">
-        <v>1150</v>
+        <v>11000</v>
       </c>
       <c r="F198" t="s">
         <v>42</v>
@@ -5540,10 +5537,10 @@
         <v>158</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E199">
-        <v>250</v>
+        <v>4850</v>
       </c>
       <c r="F199" t="s">
         <v>42</v>
@@ -5557,56 +5554,62 @@
         <v>154</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C200" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E200">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G200" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B201" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C201" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E201">
-        <v>7450</v>
+        <v>250</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G201" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B202" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C202" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E202">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="F202" t="s">
         <v>28</v>
@@ -5614,48 +5617,42 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B203" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E203">
-        <v>1000</v>
+        <v>7450</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
-      </c>
-      <c r="G203" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B204" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C204" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E204">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
-      </c>
-      <c r="G204" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5668,11 +5665,11 @@
       <c r="C205" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="6" t="s">
-        <v>34</v>
+      <c r="D205" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E205">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F205" t="s">
         <v>42</v>
@@ -5691,11 +5688,11 @@
       <c r="C206" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="6" t="s">
-        <v>27</v>
+      <c r="D206" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E206">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F206" t="s">
         <v>42</v>
@@ -5714,11 +5711,11 @@
       <c r="C207" t="s">
         <v>4</v>
       </c>
-      <c r="D207" s="8" t="s">
-        <v>29</v>
+      <c r="D207" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E207">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F207" t="s">
         <v>42</v>
@@ -5729,21 +5726,67 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B208" t="s">
+        <v>166</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E208">
+        <v>300</v>
+      </c>
+      <c r="F208" t="s">
+        <v>42</v>
+      </c>
+      <c r="G208" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B209" t="s">
+        <v>166</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209">
+        <v>450</v>
+      </c>
+      <c r="F209" t="s">
+        <v>42</v>
+      </c>
+      <c r="G209" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B210" t="s">
         <v>168</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C210" t="s">
         <v>169</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D210" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E208">
+      <c r="E210">
         <v>50</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F210" t="s">
         <v>28</v>
       </c>
     </row>
